--- a/tests/feature tests/save excel files/Cities Out.xlsx
+++ b/tests/feature tests/save excel files/Cities Out.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\Save Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P_Apps\tests\feature tests\save excel files\"/>
+      <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD56ED4A-F63F-4FF1-BC9E-8A5729C8E93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{1E05181F-7658-468F-939A-E5C3994FD589}"/>
+    <workbookView activeTab="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-0000-0000-0000-000000000000}"/>
     <!-- B4P: Insert active sheet number, 1st one  = 0 -->
   </bookViews>
   <sheets>
@@ -19,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{00000000-0000-0000-0000-000000000000}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Country</t>
   </si>
@@ -83,7 +84,8 @@
     <t>D.C.</t>
   </si>
   <si>
-    <t>Lincoln Statue</t>
+    <t>Lincoln
+Statue</t>
   </si>
   <si>
     <t>Smithsonian Inst.</t>
@@ -276,6 +278,21 @@
   </si>
   <si>
     <t>Ski lift</t>
+  </si>
+  <si>
+    <t>2022-03-20</t>
+  </si>
+  <si>
+    <t>2022-03-20 21:19:26</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>21:19:26</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Two
@@ -287,26 +304,114 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <!-- $Insert Number Formats$ -->
-  <!-- No number formats specified -->
+  <numFmts count="3">
+    <numFmt formatCode="#,##0.0" numFmtId="164"/>
+    <numFmt formatCode="#,##0.000" numFmtId="165"/>
+    <numFmt formatCode="0.0E+00" numFmtId="166"/>
+  </numFmts>
   <!-- $Insert Fonts$ -->
-  <fonts count="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000080"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <i/>
+      <u/>
+      <b/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <u/>
+    </font>
   </fonts>
   <!-- $Insert Fills$ -->
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEE7BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <!-- $Insert Borders$ -->
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,13 +419,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <!-- $Insert all Styles$ -->
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" borderId="0" fillId="2" fontId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" borderId="1" fillId="2" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" borderId="0" fillId="3" fontId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" borderId="0" fillId="4" fontId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" borderId="0" fillId="5" fontId="1" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" borderId="0" fillId="5" fontId="1" xfId="0" applyFill="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" borderId="0" fillId="5" fontId="2" xfId="0" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" borderId="0" fillId="2" fontId="3" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" borderId="0" fillId="3" fontId="4" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="3" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" borderId="0" fillId="2" fontId="5" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="164" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" borderId="0" fillId="2" fontId="0" xfId="0" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" borderId="2" fillId="2" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="4" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" borderId="0" fillId="2" fontId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" borderId="1" fillId="2" fontId="3" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" borderId="1" fillId="2" fontId="7" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="49" borderId="1" fillId="6" fontId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="49" borderId="1" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="49" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" borderId="0" fillId="7" fontId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" borderId="0" fillId="2" fontId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" borderId="0" fillId="8" fontId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -328,10 +492,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{00000000-0000-0000-0000-000000000000}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{00000000-0000-0000-0000-000000000000}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
@@ -634,468 +798,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6E9DB8-F9F0-48BC-8FB8-C5CBBDF79186}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
+  <dimension ref="A1:H31"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="1">
-      <selection sqref="A1" activeCell="A1"/>
+      <pane state="frozen" activePane="bottomRight" topLeftCell="C2" ySplit="1" xSplit="2"/>
+      <selection sqref="C1" activeCell="C1" pane="topRight"/>
+      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+      <selection sqref="C2" activeCell="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <!-- $Def Width Height$ -->
   <!-- $Insert Columns$ -->
+  <cols>
+    <col width="11.421875" min="1" max="1" style="1"/>
+    <col width="11.421875" min="2" max="2" style="1"/>
+    <col width="11.421875" min="3" max="3" style="4"/>
+    <col customWidth="1" width="16.7109375" min="4" max="4" style="1"/>
+    <col width="11.421875" min="5" max="5" style="1" hidden="1"/>
+    <col width="11.421875" min="6" max="6" style="1"/>
+    <col width="11.421875" min="7" max="7" style="1"/>
+    <col width="11.421875" min="8" max="8" style="1"/>
+    <col width="11.421875" min="9" max="16384" style="1"/>
+  </cols>
   <sheetData>
     <!-- $Insert Data$ -->
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>8300000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>650000</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1" customHeight="1" ht="40">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>1500000</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>12</v>
       </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>620000</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>43</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="2">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <v>805000</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="20">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1700000</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>580000</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>260000</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="21">
         <v>3800000</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11"/>
-      <c r="D11">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>1800000</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11"/>
-      <c r="G11" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12"/>
-      <c r="D12">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <v>8250000</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>404000</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>408</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1" hidden="1">
+      <c r="A14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2240000</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F14"/>
-      <c r="G14" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>11000</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1650</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="b">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A17" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17">
-        <v>44196</v>
-      </c>
-      <c r="E17">
-        <v>44196</v>
-      </c>
-      <c r="F17" t="b">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="23">
+        <v>44640</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="b">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A18" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18">
-        <v>44196.6050231481</v>
-      </c>
-      <c r="E18">
-        <v>44196.6050231481</v>
-      </c>
-      <c r="F18" t="b">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="24">
+        <v>44640.8884953704</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="b">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="25">
+        <v>0.8884953704</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19">
-        <v>0.6050231481</v>
-      </c>
-      <c r="E19">
-        <v>0.6050231481</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="b">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21">
-        <v>1E+20</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="26">
+        <v>100000000000000000000</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
     </row>
   </sheetData>
-  <!-- $Insert Autofilter$ -->
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
